--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kakizakimahiroplusdojo2023_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C02135-A1E0-48F8-BEE8-4194A4B3463C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DBEAB-C984-4B96-928F-D72B89E18B85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="1692" windowWidth="11664" windowHeight="10680" firstSheet="7" activeTab="9" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
-    <sheet name="トップ画面" sheetId="1" r:id="rId1"/>
-    <sheet name="ログイン画面" sheetId="3" r:id="rId2"/>
-    <sheet name="新規登録画面" sheetId="4" r:id="rId3"/>
-    <sheet name="秘密の質問画面" sheetId="5" r:id="rId4"/>
-    <sheet name="カレンダー画面" sheetId="6" r:id="rId5"/>
-    <sheet name="食事ログ画面" sheetId="7" r:id="rId6"/>
-    <sheet name="品目登録画面" sheetId="9" r:id="rId7"/>
-    <sheet name="プロフィール画面" sheetId="10" r:id="rId8"/>
-    <sheet name="個人情報画面" sheetId="11" r:id="rId9"/>
-    <sheet name="グラフ画面" sheetId="12" r:id="rId10"/>
+    <sheet name="ファイル一覧" sheetId="14" r:id="rId1"/>
+    <sheet name="トップ画面" sheetId="1" r:id="rId2"/>
+    <sheet name="ログイン画面" sheetId="3" r:id="rId3"/>
+    <sheet name="新規登録画面" sheetId="4" r:id="rId4"/>
+    <sheet name="秘密の質問画面" sheetId="5" r:id="rId5"/>
+    <sheet name="カレンダー画面" sheetId="6" r:id="rId6"/>
+    <sheet name="食事ログ画面" sheetId="7" r:id="rId7"/>
+    <sheet name="品目登録画面" sheetId="9" r:id="rId8"/>
+    <sheet name="プロフィール画面" sheetId="10" r:id="rId9"/>
+    <sheet name="個人情報画面" sheetId="11" r:id="rId10"/>
+    <sheet name="グラフ画面" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">トップ画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">グラフ画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">個人情報画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">プロフィール画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">品目登録画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">食事ログ画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">カレンダー画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">秘密の質問画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">新規登録画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ログイン画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">カレンダー画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">グラフ画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">トップ画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル一覧!$C$2:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">プロフィール画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ログイン画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">個人情報画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">食事ログ画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">新規登録画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">秘密の質問画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">品目登録画面!$C$2:$F$44</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,8 +50,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -525,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,7 +552,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -658,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,10 +672,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,28 +690,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -719,25 +720,31 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,7 +765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1053,21 +1060,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
+  <dimension ref="B2:G102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1087,154 +1096,1547 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B102" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:F28" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F102">
+      <sortCondition ref="D2:D28"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DFD2F-0DCF-4C57-BA52-BEDB38B0F587}">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1245,7 +2647,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1256,7 +2658,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1267,7 +2669,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1278,7 +2680,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1289,7 +2691,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1300,7 +2702,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1311,7 +2713,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1322,7 +2724,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1333,7 +2735,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1344,7 +2746,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1355,7 +2757,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1366,7 +2768,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1377,7 +2779,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1388,7 +2790,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1399,7 +2801,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1410,7 +2812,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1421,7 +2823,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1432,7 +2834,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1443,7 +2845,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1454,7 +2856,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1465,7 +2867,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1476,7 +2878,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1487,7 +2889,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1498,7 +2900,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1509,7 +2911,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1520,7 +2922,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1531,7 +2933,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1542,7 +2944,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1553,7 +2955,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1564,7 +2966,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1575,7 +2977,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1586,7 +2988,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1598,37 +3000,37 @@
       <c r="G44" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:F44" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <autoFilter ref="C2:F44" xr:uid="{552DFD2F-0DCF-4C57-BA52-BEDB38B0F587}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F44">
       <sortCondition ref="D2:D44"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F10">
+    <sortCondition ref="C3:C10"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF4E7D9-9691-46CD-8F49-D718472DCACB}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1667,7 +3069,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -1686,7 +3088,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1705,7 +3107,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1724,7 +3126,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1743,7 +3145,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1762,7 +3164,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1781,7 +3183,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1800,7 +3202,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1819,7 +3221,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="18.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1838,7 +3240,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="18.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1857,7 +3259,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="18.75">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1876,7 +3278,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1887,7 +3289,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1898,7 +3300,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1909,7 +3311,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1920,7 +3322,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1931,7 +3333,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1942,7 +3344,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1953,7 +3355,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1964,7 +3366,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1975,7 +3377,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1986,7 +3388,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1997,7 +3399,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2008,7 +3410,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2019,7 +3421,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2030,7 +3432,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2041,7 +3443,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2052,7 +3454,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2063,7 +3465,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2074,7 +3476,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2085,7 +3487,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2096,7 +3498,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2107,7 +3509,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2118,7 +3520,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2129,7 +3531,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2140,7 +3542,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2151,7 +3553,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2162,7 +3564,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2173,7 +3575,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2184,7 +3586,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2195,7 +3597,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2221,21 +3623,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB3892-98CB-4C16-B9A7-9DABEEB9BB93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2255,159 +3659,143 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>29</v>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="18.75">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.75">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" ht="18.75">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" ht="18.75">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2418,7 +3806,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2429,7 +3817,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2440,7 +3828,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2451,7 +3839,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2462,7 +3850,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2473,7 +3861,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2484,7 +3872,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2495,7 +3883,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2506,7 +3894,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2517,7 +3905,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2528,7 +3916,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2539,7 +3927,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2550,7 +3938,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2561,7 +3949,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2572,7 +3960,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2583,7 +3971,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2594,7 +3982,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2605,7 +3993,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2616,7 +4004,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2627,7 +4015,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2638,7 +4026,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2649,7 +4037,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2660,7 +4048,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2671,7 +4059,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2682,7 +4070,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2693,7 +4081,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2704,7 +4092,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2715,7 +4103,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2726,7 +4114,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2737,7 +4125,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2748,7 +4136,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2759,7 +4147,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2770,7 +4158,581 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:F44" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F44">
+      <sortCondition ref="D2:D44"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB3892-98CB-4C16-B9A7-9DABEEB9BB93}">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2795,25 +4757,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD35B06-062C-41E4-972F-D30DBA3518C1}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2852,7 +4813,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -2871,7 +4832,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2890,7 +4851,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2909,7 +4870,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2928,7 +4889,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2947,7 +4908,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2966,7 +4927,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2985,7 +4946,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3004,7 +4965,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3015,7 +4976,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3026,7 +4987,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3037,7 +4998,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3048,7 +5009,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3059,7 +5020,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3070,7 +5031,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3081,7 +5042,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3092,7 +5053,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3103,7 +5064,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3114,7 +5075,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3125,7 +5086,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3136,7 +5097,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3147,7 +5108,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3158,7 +5119,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3169,7 +5130,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3180,7 +5141,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3191,7 +5152,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3202,7 +5163,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3213,7 +5174,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3224,7 +5185,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3235,7 +5196,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3246,7 +5207,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3257,7 +5218,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3268,7 +5229,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3279,7 +5240,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3290,7 +5251,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3301,7 +5262,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3312,7 +5273,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3323,7 +5284,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3334,7 +5295,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3345,7 +5306,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3356,7 +5317,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3381,25 +5342,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C60156-1432-4320-9A9E-310614889CB9}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -3419,7 +5379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3438,7 +5398,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -3457,7 +5417,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3476,7 +5436,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3495,7 +5455,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3514,7 +5474,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3533,7 +5493,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3552,7 +5512,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3571,7 +5531,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3590,7 +5550,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3601,7 +5561,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3612,7 +5572,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3623,7 +5583,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3634,7 +5594,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3645,7 +5605,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3656,7 +5616,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3667,7 +5627,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3678,7 +5638,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3689,7 +5649,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3700,7 +5660,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3711,7 +5671,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3722,7 +5682,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3733,7 +5693,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3744,7 +5704,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3755,7 +5715,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3766,7 +5726,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3777,7 +5737,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3788,7 +5748,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3799,7 +5759,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3810,7 +5770,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3821,7 +5781,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3832,7 +5792,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3843,7 +5803,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3854,7 +5814,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3865,7 +5825,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3876,7 +5836,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3887,7 +5847,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3898,7 +5858,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3909,7 +5869,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3920,7 +5880,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3931,7 +5891,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3942,7 +5902,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3967,27 +5927,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3398AC39-BB84-48E9-9F1F-FFD77FF2DE4C}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +5964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4026,7 +5983,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4045,7 +6002,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4064,7 +6021,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4083,7 +6040,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4102,7 +6059,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4121,7 +6078,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4140,7 +6097,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4159,7 +6116,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4178,7 +6135,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="18.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4197,7 +6154,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="18.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4216,7 +6173,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4227,7 +6184,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4238,7 +6195,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4249,7 +6206,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4260,7 +6217,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4271,7 +6228,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4282,7 +6239,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4293,7 +6250,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4304,7 +6261,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4315,7 +6272,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4326,7 +6283,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4337,7 +6294,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4348,7 +6305,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4359,7 +6316,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4370,7 +6327,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4381,7 +6338,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4392,7 +6349,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4403,7 +6360,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4414,7 +6371,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4425,7 +6382,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4436,7 +6393,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4447,7 +6404,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4458,7 +6415,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4469,7 +6426,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4480,7 +6437,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4491,7 +6448,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4502,7 +6459,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4513,7 +6470,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4524,7 +6481,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4535,7 +6492,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4546,7 +6503,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4571,27 +6528,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D47881-9217-41AD-8F8A-EFE938619686}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4630,7 +6584,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4649,7 +6603,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4668,7 +6622,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4687,7 +6641,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4706,7 +6660,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4725,7 +6679,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4744,7 +6698,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4763,7 +6717,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4782,7 +6736,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="18.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4801,7 +6755,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="18.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4820,7 +6774,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="18.75">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4831,7 +6785,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4842,7 +6796,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4853,7 +6807,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4864,7 +6818,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4875,7 +6829,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4886,7 +6840,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4897,7 +6851,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4908,7 +6862,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4919,7 +6873,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4930,7 +6884,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4941,7 +6895,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4952,7 +6906,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4963,7 +6917,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4974,7 +6928,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4985,7 +6939,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4996,7 +6950,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5007,7 +6961,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5018,7 +6972,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5029,7 +6983,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5040,7 +6994,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5051,7 +7005,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5062,7 +7016,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5073,7 +7027,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5084,7 +7038,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5095,7 +7049,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5106,7 +7060,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5117,7 +7071,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5128,7 +7082,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5139,7 +7093,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5150,7 +7104,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5175,25 +7129,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BDDEAD-9839-4BC4-99AF-922A5AC77F98}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5213,7 +7166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5232,7 +7185,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5251,7 +7204,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5270,7 +7223,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5289,7 +7242,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5308,7 +7261,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5327,7 +7280,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5346,7 +7299,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5365,7 +7318,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5384,7 +7337,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5395,7 +7348,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5406,7 +7359,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5417,7 +7370,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5428,7 +7381,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5439,7 +7392,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5450,7 +7403,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5461,7 +7414,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5472,7 +7425,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5483,7 +7436,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5494,7 +7447,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5505,7 +7458,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5516,7 +7469,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5527,7 +7480,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5538,7 +7491,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5549,7 +7502,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5560,7 +7513,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5571,7 +7524,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5582,7 +7535,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5593,7 +7546,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5604,7 +7557,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5615,7 +7568,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5626,7 +7579,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5637,7 +7590,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5648,7 +7601,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5659,7 +7612,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5670,7 +7623,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5681,7 +7634,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5692,7 +7645,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5703,7 +7656,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5714,7 +7667,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5725,7 +7678,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5736,7 +7689,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5761,25 +7714,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F708A3A-EA3E-4348-974A-1CFC7AFDCF1F}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -5799,7 +7751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5818,7 +7770,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5837,7 +7789,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5856,7 +7808,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5875,7 +7827,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5894,7 +7846,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5913,7 +7865,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5932,7 +7884,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5951,7 +7903,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5962,7 +7914,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5973,7 +7925,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5984,7 +7936,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5995,7 +7947,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6006,7 +7958,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6017,7 +7969,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6028,7 +7980,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6039,7 +7991,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6050,7 +8002,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6061,7 +8013,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6072,7 +8024,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6083,7 +8035,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6094,7 +8046,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6105,7 +8057,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6116,7 +8068,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6127,7 +8079,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6138,7 +8090,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6149,7 +8101,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6160,7 +8112,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6171,7 +8123,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6182,7 +8134,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6193,7 +8145,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6204,7 +8156,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6215,7 +8167,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6226,7 +8178,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6237,7 +8189,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6248,7 +8200,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6259,7 +8211,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6270,7 +8222,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6281,7 +8233,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6292,7 +8244,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6303,7 +8255,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6314,7 +8266,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6333,592 +8285,6 @@
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F1048576">
     <sortCondition ref="C3:C1048576"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DFD2F-0DCF-4C57-BA52-BEDB38B0F587}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="B2:G44"/>
-  <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="18.75">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.75">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="18.75">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="18.75">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.75">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" ht="18.75">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" ht="18.75">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" ht="18.75">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" ht="18.75">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="C2:F44" xr:uid="{552DFD2F-0DCF-4C57-BA52-BEDB38B0F587}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F44">
-      <sortCondition ref="D2:D44"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F10">
-    <sortCondition ref="C3:C10"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6934,6 +8300,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -7071,23 +8446,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DBEAB-C984-4B96-928F-D72B89E18B85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7E39A-E31C-4B71-90A7-06C6DA4532A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">カレンダー画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">グラフ画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">トップ画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル一覧!$C$2:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル一覧!$C$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">プロフィール画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ログイン画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">個人情報画面!$C$2:$F$44</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="128">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -481,44 +481,132 @@
     <t>プロフィール画面用jsp</t>
   </si>
   <si>
-    <t>User_Information.java</t>
-  </si>
-  <si>
-    <t>個人情報画面用</t>
-  </si>
-  <si>
-    <t>login.css</t>
+    <t>graph.java</t>
+  </si>
+  <si>
+    <t>グラフ画面用</t>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>graph.js</t>
+  </si>
+  <si>
+    <t>グラフ用js</t>
+  </si>
+  <si>
+    <t>text.js</t>
+  </si>
+  <si>
+    <t>テキスト・アバター表示js</t>
+  </si>
+  <si>
+    <t>個人情報変更画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>コジンジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User_Information.js</t>
-  </si>
-  <si>
-    <t>個人情報js</t>
-  </si>
-  <si>
-    <t>graph.java</t>
-  </si>
-  <si>
-    <t>グラフ画面用</t>
-  </si>
-  <si>
-    <t>WebContent/css</t>
-  </si>
-  <si>
-    <t>graph.js</t>
-  </si>
-  <si>
-    <t>グラフ用js</t>
-  </si>
-  <si>
-    <t>text.js</t>
-  </si>
-  <si>
-    <t>テキスト・アバター表示js</t>
-  </si>
-  <si>
-    <t>トップ画面用css</t>
+    <t>InformationServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更画面用jsp</t>
+    <rPh sb="0" eb="6">
+      <t>コジンジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更画面用</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更js</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>graph.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ画面用css</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>graph.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ画面用jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猪瀬</t>
+    <rPh sb="0" eb="2">
+      <t>イノセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柿崎</t>
+    <rPh sb="0" eb="2">
+      <t>カキザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石松</t>
+    <rPh sb="0" eb="2">
+      <t>イシマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -562,7 +650,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +690,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +817,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -738,13 +853,52 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
-  <dimension ref="B2:G102"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1101,35 +1255,35 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B51" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>78</v>
       </c>
       <c r="G4" s="1"/>
@@ -1139,16 +1293,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="1"/>
@@ -1158,16 +1312,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="1"/>
@@ -1177,16 +1331,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="1"/>
@@ -1196,16 +1350,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1"/>
@@ -1218,7 +1372,7 @@
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="29" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1237,7 +1391,7 @@
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1256,14 +1410,14 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="30" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1272,17 +1426,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>81</v>
+      <c r="E12" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1291,17 +1445,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
+      <c r="C13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1313,14 +1467,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1332,14 +1486,14 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1351,14 +1505,14 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1368,16 +1522,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1389,7 +1543,7 @@
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1408,13 +1562,13 @@
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G19" s="1"/>
@@ -1427,13 +1581,13 @@
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1"/>
@@ -1446,7 +1600,7 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1465,14 +1619,14 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>84</v>
+      <c r="D22" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1484,14 +1638,14 @@
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
+      <c r="E23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1503,14 +1657,14 @@
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1522,14 +1676,14 @@
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>106</v>
+      <c r="D25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1541,7 +1695,7 @@
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1560,13 +1714,13 @@
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="1"/>
@@ -1579,7 +1733,7 @@
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1598,7 +1752,7 @@
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1617,7 +1771,7 @@
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1636,13 +1790,13 @@
       <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="1"/>
@@ -1655,7 +1809,7 @@
       <c r="C32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1674,14 +1828,14 @@
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>112</v>
+      <c r="E33" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1690,17 +1844,17 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>86</v>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1709,17 +1863,17 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>39</v>
+      <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1728,17 +1882,17 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>48</v>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1747,17 +1901,17 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>59</v>
+      <c r="C37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1767,16 +1921,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1786,16 +1940,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1805,16 +1959,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1826,7 +1980,7 @@
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1873,7 +2027,9 @@
       <c r="F43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
@@ -1887,10 +2043,10 @@
         <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1906,10 +2062,10 @@
         <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1925,10 +2081,10 @@
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1944,12 +2100,14 @@
         <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
@@ -1963,10 +2121,10 @@
         <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1978,16 +2136,18 @@
       <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1"/>
+      <c r="E49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -2004,9 +2164,11 @@
         <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -2025,401 +2187,14 @@
       <c r="F51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="1">
-        <f t="shared" ref="B68:B102" si="1">ROW()-2</f>
-        <v>66</v>
-      </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="1">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G102" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:F28" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <autoFilter ref="C2:F2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F102">
-      <sortCondition ref="D2:D28"/>
+      <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -2470,16 +2245,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1"/>
@@ -2489,16 +2264,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1"/>
@@ -2515,10 +2290,10 @@
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2553,10 +2328,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -2568,7 +2343,7 @@
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2584,17 +2359,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2603,17 +2378,17 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>108</v>
+      <c r="E10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -2629,10 +2404,10 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -3055,16 +2830,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="1"/>
@@ -3074,16 +2849,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1"/>
@@ -3093,16 +2868,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="1"/>
@@ -3112,16 +2887,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1"/>
@@ -3138,10 +2913,10 @@
         <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -3173,13 +2948,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -3214,10 +2989,10 @@
         <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -3226,16 +3001,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="1"/>
@@ -3252,10 +3027,10 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -3271,10 +3046,10 @@
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -4222,16 +3997,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1"/>
@@ -4241,16 +4016,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1"/>
@@ -4799,16 +4574,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1"/>
@@ -4818,16 +4593,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1"/>
@@ -4913,16 +4688,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="1"/>
@@ -5384,16 +5159,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1"/>
@@ -5403,16 +5178,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1"/>
@@ -5498,16 +5273,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="1"/>
@@ -5969,16 +5744,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="1"/>
@@ -5988,16 +5763,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1"/>
@@ -6007,16 +5782,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="1"/>
@@ -6026,16 +5801,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1"/>
@@ -6140,16 +5915,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="1"/>
@@ -6570,16 +6345,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="1"/>
@@ -6589,16 +6364,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>78</v>
       </c>
       <c r="G4" s="1"/>
@@ -6608,16 +6383,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="1"/>
@@ -6627,16 +6402,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="1"/>
@@ -6741,16 +6516,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="1"/>
@@ -7171,16 +6946,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="1"/>
@@ -7190,16 +6965,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="1"/>
@@ -7304,16 +7079,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="1"/>
@@ -7756,16 +7531,16 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G3" s="1"/>
@@ -7775,16 +7550,16 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1"/>
@@ -7870,16 +7645,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="1"/>
@@ -8292,23 +8067,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -8446,25 +8204,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8480,4 +8237,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7E39A-E31C-4B71-90A7-06C6DA4532A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B975D-2B36-45CF-998D-8BA6BD6DA979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -856,7 +856,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
   <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8067,6 +8067,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -8204,24 +8221,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8237,22 +8255,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B975D-2B36-45CF-998D-8BA6BD6DA979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E1618-C0F1-4DA3-B44B-33749F397E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="134">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -605,6 +605,45 @@
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クォン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猪瀬</t>
+    <rPh sb="0" eb="2">
+      <t>イノセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柿崎</t>
+    <rPh sb="0" eb="2">
+      <t>カキザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石松</t>
+    <rPh sb="0" eb="2">
+      <t>イシマツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1217,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
   <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1267,7 +1306,9 @@
       <c r="F3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -1286,7 +1327,9 @@
       <c r="F4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -1305,7 +1348,9 @@
       <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -1324,7 +1369,9 @@
       <c r="F6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -1343,7 +1390,9 @@
       <c r="F7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -1362,7 +1411,9 @@
       <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
@@ -1381,7 +1432,9 @@
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -1400,7 +1453,9 @@
       <c r="F10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -1419,7 +1474,9 @@
       <c r="F11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -1438,7 +1495,9 @@
       <c r="F12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -1457,7 +1516,9 @@
       <c r="F13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
@@ -1476,7 +1537,9 @@
       <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -1495,7 +1558,9 @@
       <c r="F15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -1514,7 +1579,9 @@
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -1533,7 +1600,9 @@
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -1552,7 +1621,9 @@
       <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -1571,7 +1642,9 @@
       <c r="F19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -1590,7 +1663,9 @@
       <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -1609,7 +1684,9 @@
       <c r="F21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -1628,7 +1705,9 @@
       <c r="F22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -1647,7 +1726,9 @@
       <c r="F23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -1666,7 +1747,9 @@
       <c r="F24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -1685,7 +1768,9 @@
       <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -1704,7 +1789,9 @@
       <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -1723,7 +1810,9 @@
       <c r="F27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -1742,7 +1831,9 @@
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1761,7 +1852,9 @@
       <c r="F29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -1780,7 +1873,9 @@
       <c r="F30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -1799,7 +1894,9 @@
       <c r="F31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -1818,7 +1915,9 @@
       <c r="F32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -1837,7 +1936,9 @@
       <c r="F33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -1856,7 +1957,9 @@
       <c r="F34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -1875,7 +1978,9 @@
       <c r="F35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -1894,7 +1999,9 @@
       <c r="F36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -1913,7 +2020,9 @@
       <c r="F37" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -1932,7 +2041,9 @@
       <c r="F38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -1951,7 +2062,9 @@
       <c r="F39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -1970,7 +2083,9 @@
       <c r="F40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -1989,7 +2104,9 @@
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -2008,7 +2125,9 @@
       <c r="F42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -2048,7 +2167,9 @@
       <c r="F44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -2067,7 +2188,9 @@
       <c r="F45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
@@ -2086,7 +2209,9 @@
       <c r="F46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
@@ -2126,7 +2251,9 @@
       <c r="F48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
@@ -8067,23 +8194,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -8221,25 +8331,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8255,4 +8364,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E1618-C0F1-4DA3-B44B-33749F397E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9E206-B201-43FE-9191-E4D933165C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="14" r:id="rId1"/>
     <sheet name="トップ画面" sheetId="1" r:id="rId2"/>
     <sheet name="ログイン画面" sheetId="3" r:id="rId3"/>
     <sheet name="新規登録画面" sheetId="4" r:id="rId4"/>
-    <sheet name="秘密の質問画面" sheetId="5" r:id="rId5"/>
-    <sheet name="カレンダー画面" sheetId="6" r:id="rId6"/>
-    <sheet name="食事ログ画面" sheetId="7" r:id="rId7"/>
-    <sheet name="品目登録画面" sheetId="9" r:id="rId8"/>
-    <sheet name="プロフィール画面" sheetId="10" r:id="rId9"/>
-    <sheet name="個人情報画面" sheetId="11" r:id="rId10"/>
-    <sheet name="グラフ画面" sheetId="12" r:id="rId11"/>
+    <sheet name="新規登録確認画面" sheetId="16" r:id="rId5"/>
+    <sheet name="秘密の質問画面" sheetId="5" r:id="rId6"/>
+    <sheet name="カレンダー画面" sheetId="6" r:id="rId7"/>
+    <sheet name="食事ログ画面" sheetId="7" r:id="rId8"/>
+    <sheet name="品目登録画面" sheetId="9" r:id="rId9"/>
+    <sheet name="プロフィール画面" sheetId="10" r:id="rId10"/>
+    <sheet name="個人情報画面" sheetId="11" r:id="rId11"/>
+    <sheet name="グラフ画面" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">カレンダー画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">グラフ画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">カレンダー画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">グラフ画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">トップ画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル一覧!$C$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">プロフィール画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">プロフィール画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ログイン画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">個人情報画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">食事ログ画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">個人情報画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">食事ログ画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">新規登録画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">秘密の質問画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">品目登録画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">新規登録確認画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">秘密の質問画面!$C$2:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">品目登録画面!$C$2:$F$44</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="140">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -644,6 +646,63 @@
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面用js</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面用jsp</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面用js</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面用jsp</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,22 +1313,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1310,9 +1367,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B51" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B53" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -1331,7 +1388,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1352,7 +1409,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1373,7 +1430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1394,7 +1451,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1415,7 +1472,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1436,7 +1493,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1457,7 +1514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1478,7 +1535,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1499,7 +1556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1520,7 +1577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1541,7 +1598,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1562,7 +1619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1583,7 +1640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1604,7 +1661,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1625,7 +1682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1646,7 +1703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1667,7 +1724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1688,7 +1745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1709,7 +1766,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1730,7 +1787,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1751,7 +1808,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1772,7 +1829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1793,7 +1850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1814,7 +1871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1835,7 +1892,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1856,7 +1913,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1877,7 +1934,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1898,7 +1955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1919,7 +1976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1940,7 +1997,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1961,7 +2018,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1982,7 +2039,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2003,7 +2060,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2024,7 +2081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2045,7 +2102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2066,7 +2123,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2087,7 +2144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2108,28 +2165,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2141,16 +2197,16 @@
         <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2162,16 +2218,16 @@
         <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2179,20 +2235,20 @@
       <c r="C45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2200,20 +2256,20 @@
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2225,16 +2281,16 @@
         <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2246,16 +2302,16 @@
         <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2263,20 +2319,20 @@
       <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>61</v>
+      <c r="E49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2287,17 +2343,17 @@
       <c r="D50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>25</v>
+      <c r="E50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2309,12 +2365,53 @@
         <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2331,25 +2428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DFD2F-0DCF-4C57-BA52-BEDB38B0F587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F708A3A-EA3E-4348-974A-1CFC7AFDCF1F}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2367,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2382,11 +2477,11 @@
         <v>28</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -2405,26 +2500,26 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2443,7 +2538,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2455,14 +2550,14 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2470,7 +2565,7 @@
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2481,64 +2576,56 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>118</v>
+      <c r="E9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>48</v>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2549,7 +2636,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2560,7 +2647,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2571,7 +2658,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2582,7 +2669,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2593,7 +2680,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2604,7 +2691,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2615,7 +2702,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2626,7 +2713,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2637,7 +2724,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2648,7 +2735,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2659,7 +2746,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2670,7 +2757,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2681,7 +2768,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2692,7 +2779,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2703,7 +2790,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2714,7 +2801,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2725,7 +2812,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2736,7 +2823,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2747,7 +2834,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2758,7 +2845,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2769,7 +2856,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2780,7 +2867,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2791,7 +2878,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2802,7 +2889,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2813,7 +2900,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2824,7 +2911,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2835,7 +2922,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2846,7 +2933,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2857,7 +2944,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2868,7 +2955,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2879,7 +2966,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2890,7 +2977,590 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:F44" xr:uid="{9F708A3A-EA3E-4348-974A-1CFC7AFDCF1F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F44">
+      <sortCondition ref="D2:D44"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F1048576">
+    <sortCondition ref="C3:C1048576"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DFD2F-0DCF-4C57-BA52-BEDB38B0F587}">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2915,24 +3585,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF4E7D9-9691-46CD-8F49-D718472DCACB}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2971,7 +3639,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -2990,7 +3658,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3009,7 +3677,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3028,7 +3696,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3047,7 +3715,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3066,7 +3734,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3085,7 +3753,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3104,7 +3772,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3123,7 +3791,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3142,7 +3810,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3161,7 +3829,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3180,7 +3848,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3191,7 +3859,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3202,7 +3870,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3213,7 +3881,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3224,7 +3892,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3235,7 +3903,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3246,7 +3914,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3257,7 +3925,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3268,7 +3936,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3279,7 +3947,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3290,7 +3958,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3301,7 +3969,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3312,7 +3980,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3323,7 +3991,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3334,7 +4002,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3345,7 +4013,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3356,7 +4024,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3367,7 +4035,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3378,7 +4046,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3389,7 +4057,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3400,7 +4068,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3411,7 +4079,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3422,7 +4090,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3433,7 +4101,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3444,7 +4112,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3455,7 +4123,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3466,7 +4134,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3477,7 +4145,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3488,7 +4156,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3499,7 +4167,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3528,20 +4196,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +4227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3580,7 +4246,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -3599,7 +4265,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3618,7 +4284,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3637,7 +4303,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3656,7 +4322,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3675,7 +4341,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3686,7 +4352,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3697,7 +4363,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3708,7 +4374,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3719,7 +4385,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3730,7 +4396,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3741,7 +4407,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3752,7 +4418,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3763,7 +4429,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3774,7 +4440,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3785,7 +4451,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3796,7 +4462,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3807,7 +4473,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3818,7 +4484,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3829,7 +4495,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3840,7 +4506,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3851,7 +4517,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3862,7 +4528,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3873,7 +4539,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3884,7 +4550,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3895,7 +4561,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3906,7 +4572,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3917,7 +4583,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3928,7 +4594,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3939,7 +4605,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3950,7 +4616,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3961,7 +4627,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3972,7 +4638,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3983,7 +4649,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3994,7 +4660,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4005,7 +4671,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4016,7 +4682,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4027,7 +4693,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4038,7 +4704,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4049,7 +4715,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4060,7 +4726,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4086,20 +4752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB3892-98CB-4C16-B9A7-9DABEEB9BB93}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4119,7 +4783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4138,7 +4802,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4157,7 +4821,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4176,7 +4840,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4195,7 +4859,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4214,7 +4878,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4233,7 +4897,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4252,7 +4916,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4271,7 +4935,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4282,7 +4946,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4293,7 +4957,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4304,7 +4968,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4315,7 +4979,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4326,7 +4990,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4337,7 +5001,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4348,7 +5012,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4359,7 +5023,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4370,7 +5034,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4381,7 +5045,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4392,7 +5056,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4403,7 +5067,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4414,7 +5078,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4425,7 +5089,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4436,7 +5100,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4447,7 +5111,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4458,7 +5122,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4469,7 +5133,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4480,7 +5144,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4491,7 +5155,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4502,7 +5166,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4513,7 +5177,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4524,7 +5188,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4535,7 +5199,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4546,7 +5210,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4557,7 +5221,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4568,7 +5232,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4579,7 +5243,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4590,7 +5254,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4601,7 +5265,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4612,7 +5276,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4623,7 +5287,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4634,7 +5298,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4663,20 +5327,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD35B06-062C-41E4-972F-D30DBA3518C1}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +5358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4715,7 +5377,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4734,7 +5396,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4753,7 +5415,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4772,7 +5434,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4791,7 +5453,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4810,7 +5472,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4829,7 +5491,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4848,7 +5510,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4867,18 +5529,18 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4889,7 +5551,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4900,7 +5562,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4911,7 +5573,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4922,7 +5584,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4933,7 +5595,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4944,7 +5606,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4955,7 +5617,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4966,7 +5628,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4977,7 +5639,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4988,7 +5650,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4999,7 +5661,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5010,7 +5672,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5021,7 +5683,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5032,7 +5694,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5043,7 +5705,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5054,7 +5716,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5065,7 +5727,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5076,7 +5738,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5087,7 +5749,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5098,7 +5760,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5109,7 +5771,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5120,7 +5782,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5131,7 +5793,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5142,7 +5804,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5153,7 +5815,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5164,7 +5826,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5175,7 +5837,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5186,7 +5848,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5197,7 +5859,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5208,7 +5870,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5219,7 +5881,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5245,23 +5907,545 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE78A91-62E0-4353-AD5E-AA72ACFF6C85}">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:F44" xr:uid="{2CD35B06-062C-41E4-972F-D30DBA3518C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F44">
+      <sortCondition ref="D2:D44"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C60156-1432-4320-9A9E-310614889CB9}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -5281,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5300,7 +6484,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5319,7 +6503,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5338,7 +6522,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5357,7 +6541,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5376,7 +6560,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5395,7 +6579,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5414,7 +6598,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5433,7 +6617,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5452,7 +6636,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5463,7 +6647,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5474,7 +6658,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5485,7 +6669,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5496,7 +6680,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5507,7 +6691,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5518,7 +6702,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5529,7 +6713,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5540,7 +6724,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5551,7 +6735,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5562,7 +6746,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5573,7 +6757,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5584,7 +6768,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5595,7 +6779,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5606,7 +6790,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5617,7 +6801,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5628,7 +6812,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5639,7 +6823,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5650,7 +6834,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5661,7 +6845,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5672,7 +6856,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5683,7 +6867,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5694,7 +6878,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5705,7 +6889,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5716,7 +6900,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5727,7 +6911,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5738,7 +6922,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5749,7 +6933,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5760,7 +6944,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5771,7 +6955,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5782,7 +6966,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5793,7 +6977,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5804,7 +6988,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5829,24 +7013,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3398AC39-BB84-48E9-9F1F-FFD77FF2DE4C}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5866,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5885,7 +7067,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5904,7 +7086,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5923,7 +7105,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5942,7 +7124,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5961,7 +7143,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5980,7 +7162,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5999,7 +7181,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6018,7 +7200,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6037,7 +7219,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6056,7 +7238,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6075,7 +7257,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6086,7 +7268,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6097,7 +7279,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6108,7 +7290,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6119,7 +7301,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6130,7 +7312,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6141,7 +7323,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6152,7 +7334,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6163,7 +7345,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6174,7 +7356,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6185,7 +7367,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6196,7 +7378,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6207,7 +7389,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6218,7 +7400,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6229,7 +7411,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6240,7 +7422,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6251,7 +7433,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6262,7 +7444,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6273,7 +7455,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6284,7 +7466,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6295,7 +7477,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6306,7 +7488,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6317,7 +7499,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6328,7 +7510,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6339,7 +7521,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6350,7 +7532,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6361,7 +7543,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6372,7 +7554,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6383,7 +7565,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6394,7 +7576,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6405,7 +7587,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6430,24 +7612,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D47881-9217-41AD-8F8A-EFE938619686}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +7647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -6486,7 +7666,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -6505,7 +7685,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6524,7 +7704,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6543,7 +7723,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6562,7 +7742,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6581,7 +7761,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6600,7 +7780,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6619,7 +7799,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6638,7 +7818,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6657,7 +7837,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6676,7 +7856,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6687,7 +7867,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6698,7 +7878,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6709,7 +7889,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6720,7 +7900,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6731,7 +7911,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6742,7 +7922,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6753,7 +7933,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6764,7 +7944,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6775,7 +7955,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6786,7 +7966,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6797,7 +7977,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6808,7 +7988,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6819,7 +7999,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6830,7 +8010,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6841,7 +8021,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6852,7 +8032,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6863,7 +8043,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6874,7 +8054,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6885,7 +8065,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6896,7 +8076,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6907,7 +8087,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6918,7 +8098,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6929,7 +8109,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6940,7 +8120,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6951,7 +8131,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6962,7 +8142,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6973,7 +8153,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6984,7 +8164,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6995,7 +8175,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7006,7 +8186,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7031,24 +8211,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BDDEAD-9839-4BC4-99AF-922A5AC77F98}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7068,7 +8246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -7087,7 +8265,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -7106,7 +8284,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7125,7 +8303,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7144,7 +8322,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7163,7 +8341,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7182,7 +8360,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7201,7 +8379,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7220,7 +8398,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7239,7 +8417,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7250,7 +8428,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7261,7 +8439,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7272,7 +8450,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7283,7 +8461,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7294,7 +8472,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7305,7 +8483,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7316,7 +8494,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7327,7 +8505,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7338,7 +8516,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7349,7 +8527,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7360,7 +8538,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7371,7 +8549,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7382,7 +8560,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7393,7 +8571,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7404,7 +8582,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7415,7 +8593,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7426,7 +8604,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7437,7 +8615,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7448,7 +8626,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7459,7 +8637,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7470,7 +8648,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7481,7 +8659,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7492,7 +8670,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7503,7 +8681,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7514,7 +8692,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7525,7 +8703,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7536,7 +8714,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7547,7 +8725,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7558,7 +8736,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7569,7 +8747,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7580,7 +8758,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7591,7 +8769,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7616,584 +8794,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F708A3A-EA3E-4348-974A-1CFC7AFDCF1F}">
-  <dimension ref="B2:G44"/>
-  <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="C2:F44" xr:uid="{9F708A3A-EA3E-4348-974A-1CFC7AFDCF1F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F44">
-      <sortCondition ref="D2:D44"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F1048576">
-    <sortCondition ref="C3:C1048576"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -8331,24 +8949,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8364,22 +8983,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9E206-B201-43FE-9191-E4D933165C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FBF120-A531-41AF-B879-7B0621439D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">カレンダー画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">グラフ画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">トップ画面!$C$2:$F$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル一覧!$C$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル一覧!$C$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">プロフィール画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ログイン画面!$C$2:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">個人情報画面!$C$2:$F$44</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="147">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -703,6 +703,42 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加ファイル</t>
+  </si>
+  <si>
+    <t>Loggedin.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordDao関連のデータ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事ログのデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン中ユーザ情報のデータ操作モデル</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -748,7 +784,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +857,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -875,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,6 +1045,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,20 +1367,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
-  <dimension ref="B2:G53"/>
+  <dimension ref="A2:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1367,7 +1422,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B53" si="0">ROW()-2</f>
         <v>2</v>
@@ -1388,7 +1443,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1409,7 +1464,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1430,7 +1485,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1451,7 +1506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1472,7 +1527,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1493,7 +1548,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1514,7 +1569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1535,7 +1590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1556,7 +1611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1577,7 +1632,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1598,7 +1653,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1619,7 +1674,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1640,7 +1695,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1661,7 +1716,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1682,7 +1737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1703,7 +1758,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1724,7 +1779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1745,7 +1800,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1766,7 +1821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1787,7 +1842,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1808,7 +1863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1829,7 +1884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1850,7 +1905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1871,7 +1926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1892,7 +1947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1913,7 +1968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1934,7 +1989,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1955,7 +2010,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1976,7 +2031,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1997,7 +2052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2018,7 +2073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2039,7 +2094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2060,7 +2115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2081,7 +2136,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2102,7 +2157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2123,7 +2178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2144,7 +2199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2165,7 +2220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -2185,7 +2240,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2206,7 +2261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2227,7 +2282,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2248,7 +2303,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2269,7 +2324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2290,7 +2345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2311,7 +2366,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2332,7 +2387,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2353,7 +2408,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2374,7 +2429,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -2394,7 +2449,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2415,12 +2470,131 @@
         <v>124</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:F2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F102">
-      <sortCondition ref="D2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="C2:G2" xr:uid="{A28DED97-F183-4C5C-93A9-C71CBB7EA769}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2433,16 +2607,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -2462,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2481,7 +2655,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -2500,7 +2674,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2519,7 +2693,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2538,7 +2712,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2557,7 +2731,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2576,7 +2750,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2595,7 +2769,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2614,7 +2788,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2625,7 +2799,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2636,7 +2810,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2647,7 +2821,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2658,7 +2832,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2669,7 +2843,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2680,7 +2854,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2691,7 +2865,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2702,7 +2876,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2713,7 +2887,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2724,7 +2898,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2735,7 +2909,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2746,7 +2920,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2757,7 +2931,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2768,7 +2942,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2779,7 +2953,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2790,7 +2964,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2801,7 +2975,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2812,7 +2986,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2823,7 +2997,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2834,7 +3008,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2845,7 +3019,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2856,7 +3030,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2867,7 +3041,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2878,7 +3052,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2889,7 +3063,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2900,7 +3074,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2911,7 +3085,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2922,7 +3096,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2933,7 +3107,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2944,7 +3118,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2955,7 +3129,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2966,7 +3140,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2977,7 +3151,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3008,16 +3182,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3056,7 +3230,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -3075,7 +3249,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3094,7 +3268,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3113,7 +3287,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3132,7 +3306,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3151,7 +3325,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3170,7 +3344,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3189,7 +3363,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3208,7 +3382,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3219,7 +3393,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3230,7 +3404,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3241,7 +3415,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3252,7 +3426,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3263,7 +3437,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3274,7 +3448,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3285,7 +3459,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3296,7 +3470,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3307,7 +3481,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3318,7 +3492,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3329,7 +3503,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3340,7 +3514,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3351,7 +3525,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3362,7 +3536,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3373,7 +3547,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3384,7 +3558,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3395,7 +3569,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3406,7 +3580,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3417,7 +3591,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3428,7 +3602,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3439,7 +3613,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3450,7 +3624,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3461,7 +3635,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3472,7 +3646,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3483,7 +3657,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3494,7 +3668,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3505,7 +3679,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3516,7 +3690,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3527,7 +3701,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3538,7 +3712,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3549,7 +3723,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3560,7 +3734,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3591,16 +3765,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3639,7 +3813,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -3658,7 +3832,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3677,7 +3851,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3696,7 +3870,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3715,7 +3889,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3734,7 +3908,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3753,7 +3927,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3772,7 +3946,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3791,7 +3965,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3810,7 +3984,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3829,7 +4003,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3848,7 +4022,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3859,7 +4033,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3870,7 +4044,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3881,7 +4055,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3892,7 +4066,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3903,7 +4077,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3914,7 +4088,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3925,7 +4099,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3936,7 +4110,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3947,7 +4121,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3958,7 +4132,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3969,7 +4143,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3980,7 +4154,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3991,7 +4165,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4002,7 +4176,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4013,7 +4187,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4024,7 +4198,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4035,7 +4209,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4046,7 +4220,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4057,7 +4231,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4068,7 +4242,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4079,7 +4253,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4090,7 +4264,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4101,7 +4275,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4112,7 +4286,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4123,7 +4297,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4134,7 +4308,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4145,7 +4319,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4156,7 +4330,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4167,7 +4341,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4198,16 +4372,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4227,7 +4401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4246,7 +4420,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4265,7 +4439,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4284,7 +4458,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4303,7 +4477,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4322,7 +4496,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4341,7 +4515,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4352,7 +4526,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4363,7 +4537,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4374,7 +4548,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4385,7 +4559,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4396,7 +4570,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4407,7 +4581,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4418,7 +4592,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4429,7 +4603,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4440,7 +4614,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4451,7 +4625,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4462,7 +4636,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4473,7 +4647,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4484,7 +4658,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4495,7 +4669,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4506,7 +4680,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4517,7 +4691,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4528,7 +4702,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4539,7 +4713,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4550,7 +4724,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4561,7 +4735,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4572,7 +4746,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4583,7 +4757,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4594,7 +4768,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4605,7 +4779,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4616,7 +4790,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4627,7 +4801,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4638,7 +4812,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4649,7 +4823,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4660,7 +4834,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4671,7 +4845,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4682,7 +4856,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4693,7 +4867,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4704,7 +4878,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4715,7 +4889,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4726,7 +4900,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4754,16 +4928,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +4957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4802,7 +4976,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4821,7 +4995,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4840,7 +5014,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4859,7 +5033,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4878,7 +5052,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4897,7 +5071,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4916,7 +5090,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4935,7 +5109,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4946,7 +5120,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4957,7 +5131,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4968,7 +5142,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4979,7 +5153,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4990,7 +5164,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5001,7 +5175,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5012,7 +5186,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5023,7 +5197,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5034,7 +5208,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5045,7 +5219,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5056,7 +5230,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5067,7 +5241,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5078,7 +5252,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5089,7 +5263,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5100,7 +5274,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5111,7 +5285,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5122,7 +5296,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5133,7 +5307,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5144,7 +5318,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5155,7 +5329,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5166,7 +5340,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5177,7 +5351,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5188,7 +5362,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5199,7 +5373,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5210,7 +5384,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5221,7 +5395,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5232,7 +5406,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5243,7 +5417,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5254,7 +5428,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5265,7 +5439,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5276,7 +5450,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5287,7 +5461,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5298,7 +5472,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5329,16 +5503,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5377,7 +5551,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5396,7 +5570,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5415,7 +5589,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5434,7 +5608,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5453,7 +5627,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5472,7 +5646,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5491,7 +5665,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5510,7 +5684,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5529,7 +5703,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5540,7 +5714,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5551,7 +5725,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5562,7 +5736,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5573,7 +5747,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5584,7 +5758,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5595,7 +5769,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5606,7 +5780,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5617,7 +5791,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5628,7 +5802,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5639,7 +5813,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5650,7 +5824,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5661,7 +5835,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5672,7 +5846,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5683,7 +5857,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5694,7 +5868,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5705,7 +5879,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5716,7 +5890,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5727,7 +5901,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5738,7 +5912,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5749,7 +5923,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5760,7 +5934,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5771,7 +5945,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5782,7 +5956,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5793,7 +5967,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5804,7 +5978,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5815,7 +5989,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5826,7 +6000,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5837,7 +6011,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5848,7 +6022,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5859,7 +6033,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5870,7 +6044,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5881,7 +6055,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5912,16 +6086,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5941,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5960,7 +6134,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5979,7 +6153,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5990,7 +6164,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6001,7 +6175,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6012,7 +6186,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6023,7 +6197,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6034,7 +6208,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6045,7 +6219,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6056,7 +6230,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6067,7 +6241,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6078,7 +6252,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6089,7 +6263,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6100,7 +6274,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6111,7 +6285,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6122,7 +6296,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6133,7 +6307,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6144,7 +6318,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6155,7 +6329,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6166,7 +6340,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6177,7 +6351,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6188,7 +6362,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6199,7 +6373,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6210,7 +6384,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6221,7 +6395,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6232,7 +6406,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6243,7 +6417,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6254,7 +6428,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6265,7 +6439,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6276,7 +6450,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6287,7 +6461,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6298,7 +6472,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6309,7 +6483,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6320,7 +6494,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6331,7 +6505,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6342,7 +6516,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6353,7 +6527,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6364,7 +6538,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6375,7 +6549,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6386,7 +6560,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6397,7 +6571,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6408,7 +6582,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6436,16 +6610,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -6465,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -6484,7 +6658,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -6503,7 +6677,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6522,7 +6696,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6541,7 +6715,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6560,7 +6734,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6579,7 +6753,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6598,7 +6772,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6617,7 +6791,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6636,7 +6810,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6647,7 +6821,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6658,7 +6832,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6669,7 +6843,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6680,7 +6854,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6691,7 +6865,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6702,7 +6876,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6713,7 +6887,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6724,7 +6898,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6735,7 +6909,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6746,7 +6920,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6757,7 +6931,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6768,7 +6942,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6779,7 +6953,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6790,7 +6964,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6801,7 +6975,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6812,7 +6986,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6823,7 +6997,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6834,7 +7008,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6845,7 +7019,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6856,7 +7030,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6867,7 +7041,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6878,7 +7052,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6889,7 +7063,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6900,7 +7074,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6911,7 +7085,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6922,7 +7096,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6933,7 +7107,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6944,7 +7118,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6955,7 +7129,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6966,7 +7140,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6977,7 +7151,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6988,7 +7162,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7019,16 +7193,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -7067,7 +7241,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -7086,7 +7260,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7105,7 +7279,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7124,7 +7298,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7143,7 +7317,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7162,7 +7336,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7181,7 +7355,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7200,7 +7374,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7219,7 +7393,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7238,7 +7412,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7257,7 +7431,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7268,7 +7442,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7279,7 +7453,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7290,7 +7464,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7301,7 +7475,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7312,7 +7486,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7323,7 +7497,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7334,7 +7508,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7345,7 +7519,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7356,7 +7530,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7367,7 +7541,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7378,7 +7552,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7389,7 +7563,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7400,7 +7574,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7411,7 +7585,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7422,7 +7596,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7433,7 +7607,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7444,7 +7618,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7455,7 +7629,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7466,7 +7640,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7477,7 +7651,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7488,7 +7662,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7499,7 +7673,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7510,7 +7684,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7521,7 +7695,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7532,7 +7706,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7543,7 +7717,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7554,7 +7728,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7565,7 +7739,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7576,7 +7750,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7587,7 +7761,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7618,16 +7792,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7647,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -7666,7 +7840,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -7685,7 +7859,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7704,7 +7878,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7723,7 +7897,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7742,7 +7916,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7761,7 +7935,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7780,7 +7954,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7799,7 +7973,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7818,7 +7992,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7837,7 +8011,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7856,7 +8030,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7867,7 +8041,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7878,7 +8052,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7889,7 +8063,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7900,7 +8074,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7911,7 +8085,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7922,7 +8096,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7933,7 +8107,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7944,7 +8118,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7955,7 +8129,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7966,7 +8140,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7977,7 +8151,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7988,7 +8162,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7999,7 +8173,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8010,7 +8184,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8021,7 +8195,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8032,7 +8206,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8043,7 +8217,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8054,7 +8228,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8065,7 +8239,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8076,7 +8250,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8087,7 +8261,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8098,7 +8272,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8109,7 +8283,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8120,7 +8294,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8131,7 +8305,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8142,7 +8316,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8153,7 +8327,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8164,7 +8338,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8175,7 +8349,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8186,7 +8360,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8217,16 +8391,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8246,7 +8420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -8265,7 +8439,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -8284,7 +8458,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8303,7 +8477,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8322,7 +8496,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8341,7 +8515,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8360,7 +8534,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8379,7 +8553,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8398,7 +8572,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8417,7 +8591,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8428,7 +8602,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8439,7 +8613,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8450,7 +8624,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8461,7 +8635,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8472,7 +8646,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8483,7 +8657,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8494,7 +8668,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8505,7 +8679,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8516,7 +8690,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8527,7 +8701,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8538,7 +8712,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8549,7 +8723,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8560,7 +8734,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8571,7 +8745,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8582,7 +8756,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8593,7 +8767,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8604,7 +8778,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8615,7 +8789,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8626,7 +8800,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8637,7 +8811,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8648,7 +8822,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8659,7 +8833,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8670,7 +8844,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8681,7 +8855,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8692,7 +8866,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8703,7 +8877,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8714,7 +8888,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8725,7 +8899,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8736,7 +8910,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8747,7 +8921,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8758,7 +8932,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8769,7 +8943,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8795,23 +8969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -8949,25 +9106,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8983,4 +9139,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FBF120-A531-41AF-B879-7B0621439D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F5E9BA-6865-49AB-A529-6128D9B0D09D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="151">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -739,6 +739,28 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール用js</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なかったファイル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,7 +806,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +891,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -923,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,12 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1073,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277660BE-4128-468A-B21A-5AF716EEB4E5}">
-  <dimension ref="A2:G62"/>
+  <dimension ref="A2:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
@@ -1424,20 +1461,20 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B53" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B63" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>78</v>
+      <c r="E4" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>128</v>
@@ -1448,17 +1485,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>29</v>
+      <c r="E5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>128</v>
@@ -1469,17 +1506,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>65</v>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>128</v>
@@ -1490,17 +1527,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>80</v>
+      <c r="E7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>128</v>
@@ -1511,17 +1548,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>32</v>
+      <c r="E8" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>128</v>
@@ -1532,20 +1569,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>68</v>
+      <c r="D9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>144</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1553,20 +1590,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>90</v>
+      <c r="D10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1574,20 +1611,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>105</v>
+      <c r="D11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1595,20 +1632,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>117</v>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1616,20 +1653,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>81</v>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1638,19 +1675,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1659,19 +1696,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1679,20 +1716,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1703,17 +1740,17 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1722,16 +1759,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>132</v>
@@ -1743,19 +1780,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1763,20 +1800,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>13</v>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1785,19 +1822,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1808,14 +1845,14 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>106</v>
+      <c r="D22" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>131</v>
@@ -1826,20 +1863,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>111</v>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1850,17 +1887,17 @@
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1871,14 +1908,14 @@
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>11</v>
+      <c r="D25" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>131</v>
@@ -1892,14 +1929,14 @@
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>133</v>
@@ -1913,17 +1950,17 @@
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1934,17 +1971,17 @@
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1955,17 +1992,17 @@
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1973,20 +2010,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>72</v>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1994,20 +2031,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>19</v>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2015,20 +2052,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>46</v>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2036,20 +2073,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>108</v>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2057,20 +2094,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>118</v>
+      <c r="C34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2078,20 +2115,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>86</v>
+      <c r="E35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2100,19 +2137,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2120,20 +2157,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>48</v>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2144,17 +2181,17 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2163,19 +2200,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2186,17 +2223,17 @@
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2207,37 +2244,38 @@
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2246,19 +2284,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>148</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2273,13 +2311,13 @@
         <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2294,13 +2332,13 @@
         <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2311,17 +2349,17 @@
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2332,17 +2370,17 @@
       <c r="C47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>88</v>
+      <c r="E47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2353,17 +2391,17 @@
       <c r="C48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2374,17 +2412,17 @@
       <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2398,17 +2436,20 @@
       <c r="D50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>61</v>
+      <c r="E50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2416,37 +2457,38 @@
       <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2457,84 +2499,65 @@
       <c r="C53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="1">
-        <v>52</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="1"/>
@@ -2545,6 +2568,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C58" s="1"/>
@@ -2555,6 +2579,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C59" s="1"/>
@@ -2563,38 +2588,75 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="1">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="45">
         <v>58</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="1">
+      <c r="C61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="45">
         <v>59</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="1">
+      <c r="C62" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="45">
         <v>60</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:G2" xr:uid="{A28DED97-F183-4C5C-93A9-C71CBB7EA769}"/>
+  <autoFilter ref="C2:G2" xr:uid="{A28DED97-F183-4C5C-93A9-C71CBB7EA769}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:G59">
+      <sortCondition ref="D2"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8969,6 +9031,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -9106,24 +9185,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9139,22 +9219,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_mippy.xlsx
+++ b/doc/05_ファイル構成一覧表_mippy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F5E9BA-6865-49AB-A529-6128D9B0D09D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B6E84-B939-4284-94F8-5184D91C3113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="14" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="157">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -761,6 +761,48 @@
     <t>必要なかったファイル</t>
     <rPh sb="0" eb="2">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面用jsp</t>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面用js</t>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面用css</t>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -951,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,9 +1096,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1075,19 +1114,19 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,17 +1447,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1438,1015 +1477,1015 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>63</v>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B63" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>145</v>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>78</v>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>29</v>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>65</v>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>146</v>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>144</v>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>80</v>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>32</v>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>68</v>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>66</v>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>66</v>
+        <v>148</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>81</v>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>99</v>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>7</v>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>13</v>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="1" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="1" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="1" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -2455,118 +2494,148 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2577,7 +2646,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2588,11 +2657,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="45">
+      <c r="B61" s="41">
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2611,14 +2680,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="41">
         <v>59</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="37" t="s">
         <v>46</v>
       </c>
       <c r="E62" s="17" t="s">
@@ -2631,8 +2700,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B63" s="41">
         <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2654,7 +2723,7 @@
   </sheetData>
   <autoFilter ref="C2:G2" xr:uid="{A28DED97-F183-4C5C-93A9-C71CBB7EA769}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:G59">
-      <sortCondition ref="D2"/>
+      <sortCondition descending="1" ref="C2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -2669,16 +2738,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -2698,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2717,7 +2786,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -2736,7 +2805,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2755,7 +2824,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2774,7 +2843,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2793,7 +2862,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2812,7 +2881,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2831,7 +2900,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2850,7 +2919,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2861,7 +2930,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2872,7 +2941,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2883,7 +2952,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2894,7 +2963,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2905,7 +2974,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2916,7 +2985,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2927,7 +2996,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2938,7 +3007,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2949,7 +3018,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2960,7 +3029,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2971,7 +3040,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2982,7 +3051,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2993,7 +3062,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3004,7 +3073,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3015,7 +3084,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3026,7 +3095,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3037,7 +3106,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3048,7 +3117,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3059,7 +3128,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3070,7 +3139,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3081,7 +3150,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3092,7 +3161,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3103,7 +3172,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3114,7 +3183,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3125,7 +3194,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3136,7 +3205,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3147,7 +3216,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3158,7 +3227,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3169,7 +3238,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3180,7 +3249,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3191,7 +3260,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3202,7 +3271,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3213,7 +3282,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3244,16 +3313,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3292,7 +3361,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -3311,7 +3380,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3330,7 +3399,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3349,7 +3418,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3368,7 +3437,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3387,7 +3456,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3406,7 +3475,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3425,7 +3494,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3444,7 +3513,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3455,7 +3524,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3466,7 +3535,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3477,7 +3546,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3488,7 +3557,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3499,7 +3568,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3510,7 +3579,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3521,7 +3590,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3532,7 +3601,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3543,7 +3612,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3554,7 +3623,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3565,7 +3634,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3576,7 +3645,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3587,7 +3656,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3598,7 +3667,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3609,7 +3678,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3620,7 +3689,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3631,7 +3700,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3642,7 +3711,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3653,7 +3722,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3664,7 +3733,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3675,7 +3744,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3686,7 +3755,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3697,7 +3766,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3708,7 +3777,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3719,7 +3788,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3730,7 +3799,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3741,7 +3810,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3752,7 +3821,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3763,7 +3832,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3774,7 +3843,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3785,7 +3854,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3796,7 +3865,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3827,16 +3896,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3875,7 +3944,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -3894,7 +3963,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3913,7 +3982,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3932,7 +4001,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3951,7 +4020,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3970,7 +4039,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3989,7 +4058,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4008,7 +4077,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4027,7 +4096,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4046,7 +4115,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4065,7 +4134,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4084,7 +4153,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4095,7 +4164,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4106,7 +4175,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4117,7 +4186,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4128,7 +4197,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4139,7 +4208,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4150,7 +4219,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4161,7 +4230,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4172,7 +4241,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4183,7 +4252,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4194,7 +4263,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4205,7 +4274,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4216,7 +4285,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4227,7 +4296,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4238,7 +4307,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4249,7 +4318,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4260,7 +4329,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4271,7 +4340,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4282,7 +4351,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4293,7 +4362,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4304,7 +4373,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4315,7 +4384,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4326,7 +4395,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4337,7 +4406,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4348,7 +4417,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4359,7 +4428,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4370,7 +4439,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4381,7 +4450,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4392,7 +4461,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4403,7 +4472,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4434,16 +4503,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -4482,7 +4551,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -4501,7 +4570,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4520,7 +4589,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4539,7 +4608,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4558,7 +4627,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4577,7 +4646,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4588,7 +4657,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4599,7 +4668,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4610,7 +4679,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4621,7 +4690,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4632,7 +4701,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4643,7 +4712,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4654,7 +4723,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4665,7 +4734,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4676,7 +4745,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4687,7 +4756,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4698,7 +4767,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4709,7 +4778,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4720,7 +4789,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4731,7 +4800,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4742,7 +4811,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4753,7 +4822,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4764,7 +4833,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4775,7 +4844,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4786,7 +4855,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4797,7 +4866,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4808,7 +4877,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4819,7 +4888,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4830,7 +4899,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4841,7 +4910,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4852,7 +4921,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4863,7 +4932,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4874,7 +4943,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4885,7 +4954,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4896,7 +4965,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4907,7 +4976,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4918,7 +4987,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4929,7 +4998,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4940,7 +5009,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4951,7 +5020,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4962,7 +5031,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4990,16 +5059,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5019,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5038,7 +5107,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5057,7 +5126,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5076,7 +5145,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5095,7 +5164,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5114,7 +5183,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5133,7 +5202,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5152,7 +5221,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5171,7 +5240,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5182,7 +5251,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5193,7 +5262,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5204,7 +5273,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5215,7 +5284,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5226,7 +5295,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5237,7 +5306,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5248,7 +5317,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5259,7 +5328,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5270,7 +5339,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5281,7 +5350,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5292,7 +5361,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5303,7 +5372,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5314,7 +5383,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5325,7 +5394,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5336,7 +5405,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5347,7 +5416,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5358,7 +5427,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5369,7 +5438,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5380,7 +5449,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5391,7 +5460,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5402,7 +5471,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5413,7 +5482,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5424,7 +5493,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5435,7 +5504,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5446,7 +5515,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5457,7 +5526,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5468,7 +5537,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5479,7 +5548,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5490,7 +5559,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5501,7 +5570,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5512,7 +5581,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5523,7 +5592,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5534,7 +5603,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5565,16 +5634,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5613,7 +5682,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -5632,7 +5701,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5651,7 +5720,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5670,7 +5739,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5689,7 +5758,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5708,7 +5777,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5727,7 +5796,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5746,7 +5815,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5765,7 +5834,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5776,7 +5845,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5787,7 +5856,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5798,7 +5867,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5809,7 +5878,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5820,7 +5889,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5831,7 +5900,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5842,7 +5911,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5853,7 +5922,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5864,7 +5933,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5875,7 +5944,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5886,7 +5955,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5897,7 +5966,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5908,7 +5977,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5919,7 +5988,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5930,7 +5999,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5941,7 +6010,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5952,7 +6021,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5963,7 +6032,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5974,7 +6043,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5985,7 +6054,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5996,7 +6065,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6007,7 +6076,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6018,7 +6087,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6029,7 +6098,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6040,7 +6109,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6051,7 +6120,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6062,7 +6131,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6073,7 +6142,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6084,7 +6153,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6095,7 +6164,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6106,7 +6175,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6117,7 +6186,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6148,16 +6217,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6177,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -6196,7 +6265,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -6215,7 +6284,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6226,7 +6295,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6237,7 +6306,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6248,7 +6317,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6259,7 +6328,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6270,7 +6339,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6281,7 +6350,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6292,7 +6361,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6303,7 +6372,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6314,7 +6383,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6325,7 +6394,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6336,7 +6405,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6347,7 +6416,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6358,7 +6427,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6369,7 +6438,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6380,7 +6449,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6391,7 +6460,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6402,7 +6471,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6413,7 +6482,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6424,7 +6493,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6435,7 +6504,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6446,7 +6515,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6457,7 +6526,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6468,7 +6537,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6479,7 +6548,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6490,7 +6559,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6501,7 +6570,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6512,7 +6581,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6523,7 +6592,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6534,7 +6603,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6545,7 +6614,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6556,7 +6625,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6567,7 +6636,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6578,7 +6647,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6589,7 +6658,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6600,7 +6669,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6611,7 +6680,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6622,7 +6691,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6633,7 +6702,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6644,7 +6713,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6672,16 +6741,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -6701,7 +6770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -6720,7 +6789,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -6739,7 +6808,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6758,7 +6827,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6777,7 +6846,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6796,7 +6865,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6815,7 +6884,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6834,7 +6903,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6853,7 +6922,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6872,7 +6941,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6883,7 +6952,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6894,7 +6963,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6905,7 +6974,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6916,7 +6985,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6927,7 +6996,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6938,7 +7007,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6949,7 +7018,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6960,7 +7029,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6971,7 +7040,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6982,7 +7051,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6993,7 +7062,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7004,7 +7073,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7015,7 +7084,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7026,7 +7095,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7037,7 +7106,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7048,7 +7117,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7059,7 +7128,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7070,7 +7139,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7081,7 +7150,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7092,7 +7161,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7103,7 +7172,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7114,7 +7183,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7125,7 +7194,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7136,7 +7205,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7147,7 +7216,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7158,7 +7227,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7169,7 +7238,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7180,7 +7249,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7191,7 +7260,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7202,7 +7271,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7213,7 +7282,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7224,7 +7293,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7255,16 +7324,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7284,7 +7353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -7303,7 +7372,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -7322,7 +7391,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7341,7 +7410,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7360,7 +7429,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7379,7 +7448,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7398,7 +7467,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7417,7 +7486,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7436,7 +7505,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7455,7 +7524,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7474,7 +7543,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7493,7 +7562,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7504,7 +7573,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7515,7 +7584,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7526,7 +7595,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7537,7 +7606,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7548,7 +7617,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7559,7 +7628,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7570,7 +7639,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7581,7 +7650,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7592,7 +7661,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7603,7 +7672,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7614,7 +7683,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7625,7 +7694,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7636,7 +7705,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7647,7 +7716,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7658,7 +7727,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7669,7 +7738,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7680,7 +7749,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7691,7 +7760,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7702,7 +7771,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7713,7 +7782,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7724,7 +7793,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7735,7 +7804,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7746,7 +7815,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7757,7 +7826,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7768,7 +7837,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7779,7 +7848,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7790,7 +7859,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7801,7 +7870,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7812,7 +7881,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7823,7 +7892,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7854,16 +7923,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7883,7 +7952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -7902,7 +7971,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -7921,7 +7990,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7940,7 +8009,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7959,7 +8028,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7978,7 +8047,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7997,7 +8066,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8016,7 +8085,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8035,7 +8104,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8054,7 +8123,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8073,7 +8142,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8092,7 +8161,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8103,7 +8172,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8114,7 +8183,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8125,7 +8194,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8136,7 +8205,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8147,7 +8216,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8158,7 +8227,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8169,7 +8238,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8180,7 +8249,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8191,7 +8260,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8202,7 +8271,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8213,7 +8282,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8224,7 +8293,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8235,7 +8304,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8246,7 +8315,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8257,7 +8326,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8268,7 +8337,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8279,7 +8348,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8290,7 +8359,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8301,7 +8370,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8312,7 +8381,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8323,7 +8392,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8334,7 +8403,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8345,7 +8414,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8356,7 +8425,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8367,7 +8436,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8378,7 +8447,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8389,7 +8458,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8400,7 +8469,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8411,7 +8480,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8422,7 +8491,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8453,16 +8522,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="58.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8482,7 +8551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -8501,7 +8570,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
@@ -8520,7 +8589,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8539,7 +8608,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8558,7 +8627,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8577,7 +8646,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8596,7 +8665,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8615,7 +8684,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8634,7 +8703,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8653,7 +8722,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8664,7 +8733,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8675,7 +8744,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8686,7 +8755,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8697,7 +8766,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8708,7 +8777,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8719,7 +8788,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8730,7 +8799,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8741,7 +8810,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8752,7 +8821,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8763,7 +8832,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8774,7 +8843,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8785,7 +8854,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8796,7 +8865,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8807,7 +8876,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8818,7 +8887,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8829,7 +8898,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8840,7 +8909,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8851,7 +8920,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8862,7 +8931,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8873,7 +8942,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8884,7 +8953,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8895,7 +8964,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8906,7 +8975,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8917,7 +8986,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8928,7 +8997,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8939,7 +9008,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8950,7 +9019,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8961,7 +9030,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8972,7 +9041,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8983,7 +9052,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8994,7 +9063,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9005,7 +9074,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9031,23 +9100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b097f80ec6483dcb1d966d9626d010de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afac8010ce8cdd7c7296ff36df68b65d" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -9185,25 +9237,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6827018-4B0D-4E96-8ACC-2C0F46576F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9219,4 +9270,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>